--- a/biology/Médecine/Trousse_de_secours/Trousse_de_secours.xlsx
+++ b/biology/Médecine/Trousse_de_secours/Trousse_de_secours.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une trousse de secours ou trousse de premiers soins est un contenant où l'on retrouve des dispositifs médicaux permettant d'effectuer les premiers soins en cas de blessures, douleurs ou autres traumatismes.
 La trousse de secours peut prendre des formes et des tailles variables. Elle contient un nombre de dispositifs médicaux divers en fonction de son utilisation, de la zone géographique de la personne secourue (mer, montagne, service de soins hospitaliers, etc.), mais également de l'habilitation du porteur à prodiguer les premiers soins (pompier, secouriste, infirmier, militaire, civil, etc.).
@@ -512,20 +524,17 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une trousse de secours peut se réduire à une paire de gants de latex ou nitrile stockés dans un sac plastique ou être un sac à dos rempli. Il existe différentes trousses de secours en fonction de leur utilisation (en milieux urbains, montagnards, pour la randonnée[1], en voyage en pays chauds, pour un diabétique, etc.). Ainsi, elles ne seront pas composées des mêmes instruments.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une trousse de secours peut se réduire à une paire de gants de latex ou nitrile stockés dans un sac plastique ou être un sac à dos rempli. Il existe différentes trousses de secours en fonction de leur utilisation (en milieux urbains, montagnards, pour la randonnée, en voyage en pays chauds, pour un diabétique, etc.). Ainsi, elles ne seront pas composées des mêmes instruments.
 Il y a des notions de base communes :
 protection (de soi et de la victime) ;
 outils essentiels ;
 médicaments ;
 traitement des blessures.
 Dans le cadre professionnel (pour l'usage des sauveteurs secouristes du travail), le contenu de la trousse est de la responsabilité du médecin du travail et dépend des risques spécifiques encourus (coupures, brûlures, expositions à des substances chimiques, etc.). De même, pour certaines activités, des textes peuvent fixer le matériel recommandé (par exemple, une note d'information du ministère de la Jeunesse et des Sports pour une fédération sportive).
-Matériels de base : protection, urgences vitales et premiers soins
-Il faut régulièrement contrôler (par exemple, une fois par an et avant d'entreprendre un voyage) les produits qui peuvent geler l'hiver et chauffer l'été.
-Pour le bouche-à-bouche, il existe aussi des masques de protection de poche. Mais, il faut dans tous les cas savoir utiliser ce matériel, sinon la ventilation artificielle est inefficace. Si l'on peut légitimement avoir une réticence à poser sa bouche sur la bouche d'une personne inconnue, il faut savoir qu'aucun cas de transmission de maladie n'a jamais été recensé. On peut le cas échéant interposer un mouchoir, ou bien pratiquer le bouche-à-nez, l'important est que les insufflations soient efficaces (bonne bascule de la tête, bonne étanchéité, la poitrine doit commencer à se soulever en soufflant sans effort excessif).
-Médicaments
-La prescription des médicaments est du ressort exclusif d'un médecin. Les médicaments en vente libre seront achetés sur les conseils du pharmacien. De plus, les médicaments ont une date de péremption qu'il faut impérativement respecter. Pour ces trois raisons, les médicaments ne font pas partie, à proprement parler, d'une trousse de secours, mais plutôt d'une trousse à pharmacie séparée.
 </t>
         </is>
       </c>
@@ -551,17 +560,129 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Matériels de base : protection, urgences vitales et premiers soins</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il faut régulièrement contrôler (par exemple, une fois par an et avant d'entreprendre un voyage) les produits qui peuvent geler l'hiver et chauffer l'été.
+Pour le bouche-à-bouche, il existe aussi des masques de protection de poche. Mais, il faut dans tous les cas savoir utiliser ce matériel, sinon la ventilation artificielle est inefficace. Si l'on peut légitimement avoir une réticence à poser sa bouche sur la bouche d'une personne inconnue, il faut savoir qu'aucun cas de transmission de maladie n'a jamais été recensé. On peut le cas échéant interposer un mouchoir, ou bien pratiquer le bouche-à-nez, l'important est que les insufflations soient efficaces (bonne bascule de la tête, bonne étanchéité, la poitrine doit commencer à se soulever en soufflant sans effort excessif).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trousse_de_secours</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trousse_de_secours</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médicaments</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prescription des médicaments est du ressort exclusif d'un médecin. Les médicaments en vente libre seront achetés sur les conseils du pharmacien. De plus, les médicaments ont une date de péremption qu'il faut impérativement respecter. Pour ces trois raisons, les médicaments ne font pas partie, à proprement parler, d'une trousse de secours, mais plutôt d'une trousse à pharmacie séparée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trousse_de_secours</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trousse_de_secours</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Sports à risque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains sports comportent des risques spécifiques et se pratiquent souvent loin des centres de secours et centres hospitaliers.
 C'est ainsi que le navigateur Bertrand de Broc du Vendée Globe dut se recoudre lui-même la langue, aidé à distance du médecin Jean-Yves Chauve.
 Dans ce cas, il convient de suivre une formation spécifique, qui peut être dispensée par la fédération sportive ou l'organisateur de l'épreuve, et de se documenter.
-Navigation de plaisance
-Les bateaux de plaisance et de formation de moins de 24 m immatriculés en France et naviguant à plus de six milles d'un abri doivent, depuis 2008, embarquer une trousse de secours décrite par l'article 240-3.17[7].
-La trousse de secours comprend au minimum les éléments suivants[8] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trousse_de_secours</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trousse_de_secours</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sports à risque</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Navigation de plaisance</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bateaux de plaisance et de formation de moins de 24 m immatriculés en France et naviguant à plus de six milles d'un abri doivent, depuis 2008, embarquer une trousse de secours décrite par l'article 240-3.17.
+La trousse de secours comprend au minimum les éléments suivants :
 un paquet de cinq compresses de gaze stériles, taille moyenne ;
 chlorhexidine en solution aqueuse unidose 0,05 % ;
 un coussin hémostatique ;
@@ -574,33 +695,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Trousse_de_secours</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Trousse_de_secours</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Histoire des trousses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières trousses de secours distribuées à l'ensemble du personnel d'une armée le furent pendant la Première Guerre mondiale[9].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières trousses de secours distribuées à l'ensemble du personnel d'une armée le furent pendant la Première Guerre mondiale.
 </t>
         </is>
       </c>
